--- a/FNT_OIAK.xlsx
+++ b/FNT_OIAK.xlsx
@@ -1,22 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="13155" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Krzysiu Cysiu</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Ciąg wyjściowy 2 służy do liczenia transformaty odwrotnej dla zadanych przez użytkownika parametrów. Należy wpisać wybrany ciąg, a wynik pokaże się w oknie Transformata odwrotna.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>N(długość)</t>
   </si>
@@ -47,12 +76,15 @@
   <si>
     <t>Transformata odwrotna</t>
   </si>
+  <si>
+    <t>N=4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +102,12 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -79,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -218,11 +256,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,6 +357,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -274,6 +383,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -322,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,9 +467,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,6 +519,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -565,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +741,9 @@
       <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -607,7 +756,12 @@
         <v>4</v>
       </c>
       <c r="E4" s="10">
+        <f>LOG(B4,2)</f>
         <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <f ca="1">MATCH(1, INDEX(MOD(ROW(INDIRECT("1:"&amp;C4))*POWER(E4,2), C4),0),0)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -634,58 +788,58 @@
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f>MOD($B$7*POWER($D$4,C7*$C$7)+$B$8*POWER($D$4,C7*$C$8)+$B$9*POWER($D$4,C7*$C$9)+$B$10*POWER($D$4,C7*$C$10),$C$4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9">
         <v>3</v>
       </c>
       <c r="G7" s="9">
-        <f ca="1">IF(MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C7*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C7),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C7),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C7),$C$4),0),0)),$C$4)&gt;8,MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C7*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C7),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C7),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C7),$C$4),0),0)),$C$4)-17,MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C7*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C7),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C7),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C7),$C$4),0),0)),$C$4))</f>
+        <f ca="1">IF(MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C7*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C7),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C7),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C7),$C$4),0),0)),$C$4)&gt;8,MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C7*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C7),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C7),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C7),$C$4),0),0)),$C$4)-17,MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C7*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C7),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C7),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C7),$C$4),0),0)),$C$4))</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" ref="D8:D10" si="0">MOD($B$7*POWER($D$4,C8*$C$7)+$B$8*POWER($D$4,C8*$C$8)+$B$9*POWER($D$4,C8*$C$9)+$B$10*POWER($D$4,C8*$C$10),$C$4)</f>
-        <v>9</v>
+        <f>MOD($B$7*POWER($D$4,C8*$C$7)+$B$8*POWER($D$4,C8*$C$8)+$B$9*POWER($D$4,C8*$C$9)+$B$10*POWER($D$4,C8*$C$10),$C$4)</f>
+        <v>10</v>
       </c>
       <c r="E8" s="9">
         <v>5</v>
       </c>
       <c r="G8" s="9">
-        <f ca="1">IF(MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C8*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C8),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C8),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C8),$C$4),0),0)),$C$4)&gt;8,MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C8*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C8),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C8),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C8),$C$4),0),0)),$C$4)-17,MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C8*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C8),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C8),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C8),$C$4),0),0)),$C$4))</f>
+        <f ca="1">IF(MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C8*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C8),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C8),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C8),$C$4),0),0)),$C$4)&gt;8,MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C8*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C8),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C8),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C8),$C$4),0),0)),$C$4)-17,MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C8*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C8),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C8),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C8),$C$4),0),0)),$C$4))</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>MOD($B$7*POWER($D$4,C9*$C$7)+$B$8*POWER($D$4,C9*$C$8)+$B$9*POWER($D$4,C9*$C$9)+$B$10*POWER($D$4,C9*$C$10),$C$4)</f>
+        <v>5</v>
       </c>
       <c r="E9" s="9">
         <v>12</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ref="G8:G10" ca="1" si="1">IF(MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C9*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C9),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C9),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C9),$C$4),0),0)),$C$4)&gt;8,MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C9*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C9),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C9),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C9),$C$4),0),0)),$C$4)-17,MOD($B$13*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C9*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C9),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C9),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C9),$C$4),0),0)),$C$4))</f>
+        <f ca="1">IF(MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C9*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C9),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C9),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C9),$C$4),0),0)),$C$4)&gt;8,MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C9*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C9),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C9),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C9),$C$4),0),0)),$C$4)-17,MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C9*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C9),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C9),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C9),$C$4),0),0)),$C$4))</f>
         <v>-3</v>
       </c>
     </row>
@@ -697,32 +851,194 @@
         <v>3</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>MOD($B$7*POWER($D$4,C10*$C$7)+$B$8*POWER($D$4,C10*$C$8)+$B$9*POWER($D$4,C10*$C$9)+$B$10*POWER($D$4,C10*$C$10),$C$4)</f>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C10*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C10),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C10),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C10),$C$4),0),0)),$C$4)&gt;8,MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C10*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C10),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C10),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C10),$C$4),0),0)),$C$4)-17,MOD($G$4*($E$7*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,C10*$C$7),$C$4),0),0)+$E$8*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$8*C10),$C$4),0),0)+$E$9*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$9*C10),$C$4),0),0)+$E$10*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,$C$10*C10),$C$4),0),0)),$C$4))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <f>MOD($B$13*POWER($D$4,(C13*$C$13))+$B$14*POWER($D$4,(C13*$C$14))+$B$15*POWER($D$4,(C13*$C$15))+$B$16*POWER($D$4,(C13*$C$16))+$B$17*POWER($D$4,(C13*$C$17))+$B$18*POWER($D$4,(C13*$C$18))+$B$19*POWER($D$4,(C13*$C$19))+$B$20*POWER($D$4,(C13*$C$20)),$C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6">
+        <f ca="1">MOD($G$4*MOD($E$13*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C13*$C$13,$C$4)),$C$4),0),0)+$E$14*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C13*$C$14,$C$4)),$C$4),0),0)+$E$15*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C13*$C$15,$C$4)),$C$4),0),0)+$E$16*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C13*$C$16,$C$4)),$C$4),0),0)+$E$17*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C13*$C$17,$C$4)),$C$4),0),0)+$E$18*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C13*$C$18,$C$4)),$C$4),0),0)+$E$19*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C13*$C$19,$C$4)),$C$4),0),0)+$E$20*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C13*$C$20,$C$4)),$C$4),0),0),$C$4),$C$4)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <f>MOD($B$13*POWER($D$4,(C14*$C$13))+$B$14*POWER($D$4,(C14*$C$14))+$B$15*POWER($D$4,(C14*$C$15))+$B$16*POWER($D$4,(C14*$C$16))+$B$17*POWER($D$4,(C14*$C$17))+$B$18*POWER($D$4,(C14*$C$18))+$B$19*POWER($D$4,(C14*$C$19))+$B$20*POWER($D$4,(C14*$C$20)),$C$4)</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="20">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="20">
+        <f ca="1">MOD($G$4*MOD($E$13*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C14*$C$13,$C$4)),$C$4),0),0)+$E$14*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C14*$C$14,$C$4)),$C$4),0),0)+$E$15*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C14*$C$15,$C$4)),$C$4),0),0)+$E$16*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C14*$C$16,$C$4)),$C$4),0),0)+$E$17*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C14*$C$17,$C$4)),$C$4),0),0)+$E$18*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C14*$C$18,$C$4)),$C$4),0),0)+$E$19*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C14*$C$19,$C$4)),$C$4),0),0)+$E$20*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C14*$C$20,$C$4)),$C$4),0),0),$C$4),$C$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <f>MOD($B$13*POWER($D$4,(C15*$C$13))+$B$14*POWER($D$4,(C15*$C$14))+$B$15*POWER($D$4,(C15*$C$15))+$B$16*POWER($D$4,(C15*$C$16))+$B$17*POWER($D$4,(C15*$C$17))+$B$18*POWER($D$4,(C15*$C$18))+$B$19*POWER($D$4,(C15*$C$19))+$B$20*POWER($D$4,(C15*$C$20)),$C$4)</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="20">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="20">
+        <f ca="1">MOD($G$4*MOD($E$13*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C15*$C$13,$C$4)),$C$4),0),0)+$E$14*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C15*$C$14,$C$4)),$C$4),0),0)+$E$15*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C15*$C$15,$C$4)),$C$4),0),0)+$E$16*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C15*$C$16,$C$4)),$C$4),0),0)+$E$17*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C15*$C$17,$C$4)),$C$4),0),0)+$E$18*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C15*$C$18,$C$4)),$C$4),0),0)+$E$19*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C15*$C$19,$C$4)),$C$4),0),0)+$E$20*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C15*$C$20,$C$4)),$C$4),0),0),$C$4),$C$4)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <f>MOD($B$13*POWER($D$4,(C16*$C$13))+$B$14*POWER($D$4,(C16*$C$14))+$B$15*POWER($D$4,(C16*$C$15))+$B$16*POWER($D$4,(C16*$C$16))+$B$17*POWER($D$4,(C16*$C$17))+$B$18*POWER($D$4,(C16*$C$18))+$B$19*POWER($D$4,(C16*$C$19))+$B$20*POWER($D$4,(C16*$C$20)),$C$4)</f>
+        <v>9</v>
+      </c>
+      <c r="E16" s="20">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="20">
+        <f ca="1">MOD($G$4*MOD($E$13*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C16*$C$13,$C$4)),$C$4),0),0)+$E$14*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C16*$C$14,$C$4)),$C$4),0),0)+$E$15*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C16*$C$15,$C$4)),$C$4),0),0)+$E$16*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C16*$C$16,$C$4)),$C$4),0),0)+$E$17*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C16*$C$17,$C$4)),$C$4),0),0)+$E$18*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C16*$C$18,$C$4)),$C$4),0),0)+$E$19*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C16*$C$19,$C$4)),$C$4),0),0)+$E$20*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C16*$C$20,$C$4)),$C$4),0),0),$C$4),$C$4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <f>MOD($B$13*POWER($D$4,(C17*$C$13))+$B$14*POWER($D$4,(C17*$C$14))+$B$15*POWER($D$4,(C17*$C$15))+$B$16*POWER($D$4,(C17*$C$16))+$B$17*POWER($D$4,(C17*$C$17))+$B$18*POWER($D$4,(C17*$C$18))+$B$19*POWER($D$4,(C17*$C$19))+$B$20*POWER($D$4,(C17*$C$20)),$C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="20">
+        <f ca="1">MOD($G$4*MOD($E$13*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C17*$C$13,$C$4)),$C$4),0),0)+$E$14*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C17*$C$14,$C$4)),$C$4),0),0)+$E$15*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C17*$C$15,$C$4)),$C$4),0),0)+$E$16*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C17*$C$16,$C$4)),$C$4),0),0)+$E$17*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C17*$C$17,$C$4)),$C$4),0),0)+$E$18*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C17*$C$18,$C$4)),$C$4),0),0)+$E$19*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C17*$C$19,$C$4)),$C$4),0),0)+$E$20*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C17*$C$20,$C$4)),$C$4),0),0),$C$4),$C$4)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6">
+        <f>MOD($B$13*POWER($D$4,(C18*$C$13))+$B$14*POWER($D$4,(C18*$C$14))+$B$15*POWER($D$4,(C18*$C$15))+$B$16*POWER($D$4,(C18*$C$16))+$B$17*POWER($D$4,(C18*$C$17))+$B$18*POWER($D$4,(C18*$C$18))+$B$19*POWER($D$4,(C18*$C$19))+$B$20*POWER($D$4,(C18*$C$20)),$C$4)</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="20">
+        <f ca="1">MOD($G$4*MOD($E$13*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C18*$C$13,$C$4)),$C$4),0),0)+$E$14*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C18*$C$14,$C$4)),$C$4),0),0)+$E$15*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C18*$C$15,$C$4)),$C$4),0),0)+$E$16*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C18*$C$16,$C$4)),$C$4),0),0)+$E$17*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C18*$C$17,$C$4)),$C$4),0),0)+$E$18*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C18*$C$18,$C$4)),$C$4),0),0)+$E$19*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C18*$C$19,$C$4)),$C$4),0),0)+$E$20*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C18*$C$20,$C$4)),$C$4),0),0),$C$4),$C$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <f>MOD($B$13*POWER($D$4,(C19*$C$13))+$B$14*POWER($D$4,(C19*$C$14))+$B$15*POWER($D$4,(C19*$C$15))+$B$16*POWER($D$4,(C19*$C$16))+$B$17*POWER($D$4,(C19*$C$17))+$B$18*POWER($D$4,(C19*$C$18))+$B$19*POWER($D$4,(C19*$C$19))+$B$20*POWER($D$4,(C19*$C$20)),$C$4)</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="20">
+        <f ca="1">MOD($G$4*MOD($E$13*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C19*$C$13,$C$4)),$C$4),0),0)+$E$14*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C19*$C$14,$C$4)),$C$4),0),0)+$E$15*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C19*$C$15,$C$4)),$C$4),0),0)+$E$16*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C19*$C$16,$C$4)),$C$4),0),0)+$E$17*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C19*$C$17,$C$4)),$C$4),0),0)+$E$18*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C19*$C$18,$C$4)),$C$4),0),0)+$E$19*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C19*$C$19,$C$4)),$C$4),0),0)+$E$20*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C19*$C$20,$C$4)),$C$4),0),0),$C$4),$C$4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <f ca="1">MATCH(1, INDEX(MOD(ROW(INDIRECT("1:"&amp;C4))*POWER(E4,2), C4),0),0)</f>
-        <v>13</v>
-      </c>
+      <c r="D20" s="6">
+        <f>MOD($B$13*POWER($D$4,(C20*$C$13))+$B$14*POWER($D$4,(C20*$C$14))+$B$15*POWER($D$4,(C20*$C$15))+$B$16*POWER($D$4,(C20*$C$16))+$B$17*POWER($D$4,(C20*$C$17))+$B$18*POWER($D$4,(C20*$C$18))+$B$19*POWER($D$4,(C20*$C$19))+$B$20*POWER($D$4,(C20*$C$20)),$C$4)</f>
+        <v>9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7">
+        <f ca="1">MOD($G$4*MOD($E$13*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C20*$C$13,$C$4)),$C$4),0),0)+$E$14*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C20*$C$14,$C$4)),$C$4),0),0)+$E$15*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C20*$C$15,$C$4)),$C$4),0),0)+$E$16*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C20*$C$16,$C$4)),$C$4),0),0)+$E$17*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C20*$C$17,$C$4)),$C$4),0),0)+$E$18*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C20*$C$18,$C$4)),$C$4),0),0)+$E$19*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C20*$C$19,$C$4)),$C$4),0),0)+$E$20*MATCH(1,INDEX(MOD(ROW(INDIRECT("1:"&amp;$C$4))*POWER($D$4,MOD(C20*$C$20,$C$4)),$C$4),0),0),$C$4),$C$4)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
